--- a/fixefidbean/doc/StudentAnag.xlsx
+++ b/fixefidbean/doc/StudentAnag.xlsx
@@ -261,12 +261,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -353,7 +359,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -370,11 +376,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,7 +392,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -467,7 +477,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -502,7 +512,7 @@
   <dimension ref="A2:IV178"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -519,7 +529,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="3" width="4.33"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="6" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -534,291 +544,291 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="n">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="n">
         <f aca="false">+C5+D5</f>
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12" t="s">
+      <c r="E6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="n">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="n">
         <f aca="false">+C6+D6</f>
         <v>36</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12" t="s">
+      <c r="E7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="n">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="n">
         <f aca="false">+C7+D7</f>
         <v>61</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="n">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="n">
         <f aca="false">+C8+D8</f>
         <v>64</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="E9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="11" t="n">
         <f aca="false">+C9+D9</f>
         <v>89</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="E10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="11" t="n">
         <f aca="false">+C10+D10</f>
         <v>139</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
+      <c r="E11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="n">
+      <c r="C12" s="11" t="n">
         <f aca="false">+C11+D11</f>
         <v>149</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="E12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="11" t="n">
         <f aca="false">+C12+D12</f>
         <v>199</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
+      <c r="E13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="11" t="n">
         <f aca="false">+C13+D13</f>
         <v>249</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
+      <c r="E14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="11" t="n">
         <f aca="false">+C14+D14</f>
         <v>251</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
+      <c r="E15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="11" t="n">
         <f aca="false">+C15+D15</f>
         <v>256</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
+      <c r="E16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I16" s="0"/>
@@ -1071,193 +1081,193 @@
       <c r="IV16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10" t="n">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="n">
         <f aca="false">+C16+D16</f>
         <v>259</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="E17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10" t="n">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="n">
         <f aca="false">+C17+D17</f>
         <v>289</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12" t="s">
+      <c r="E18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="11" t="n">
         <f aca="false">+C18+D18</f>
         <v>299</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
+      <c r="E19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="10" t="n">
+      <c r="C20" s="11" t="n">
         <f aca="false">+C19+D19</f>
         <v>349</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="E20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="10" t="n">
+      <c r="C21" s="11" t="n">
         <f aca="false">+C20+D20</f>
         <v>359</v>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D21" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
+      <c r="E21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="10" t="n">
+      <c r="C22" s="11" t="n">
         <f aca="false">+C21+D21</f>
         <v>409</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D22" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
+      <c r="E22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C23" s="11" t="n">
         <f aca="false">+C22+D22</f>
         <v>459</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+      <c r="E23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="10" t="n">
+      <c r="C24" s="11" t="n">
         <f aca="false">+C23+D23</f>
         <v>461</v>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D24" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
+      <c r="E24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="10" t="n">
+      <c r="C25" s="11" t="n">
         <f aca="false">+C24+D24</f>
         <v>466</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11" t="s">
+      <c r="E25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="0"/>
@@ -1510,174 +1520,174 @@
       <c r="IV25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10" t="n">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11" t="n">
         <f aca="false">+C25+D25</f>
         <v>469</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="E26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10" t="n">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="n">
         <f aca="false">+C26+D26</f>
         <v>499</v>
       </c>
-      <c r="D27" s="10" t="n">
+      <c r="D27" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10" t="n">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="n">
         <f aca="false">+C27+D27</f>
         <v>509</v>
       </c>
-      <c r="D28" s="10" t="n">
+      <c r="D28" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12" t="s">
+      <c r="E28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10" t="n">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11" t="n">
         <f aca="false">+C28+D28</f>
         <v>510</v>
       </c>
-      <c r="D29" s="10" t="n">
+      <c r="D29" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10" t="n">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="n">
         <f aca="false">+C29+D29</f>
         <v>512</v>
       </c>
-      <c r="D30" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12" t="s">
+      <c r="D30" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10" t="n">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11" t="n">
         <f aca="false">+C30+D30</f>
         <v>526</v>
       </c>
-      <c r="D31" s="10" t="n">
+      <c r="D31" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10" t="n">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11" t="n">
         <f aca="false">+C31+D31</f>
         <v>536</v>
       </c>
-      <c r="D32" s="10" t="n">
+      <c r="D32" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12" t="s">
+      <c r="E32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10" t="n">
+      <c r="B33" s="10"/>
+      <c r="C33" s="11" t="n">
         <f aca="false">+C32+D32</f>
         <v>586</v>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D33" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="176" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="177" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
